--- a/노트/11_2nd Project/프로젝트팀.xlsx
+++ b/노트/11_2nd Project/프로젝트팀.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="7155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="개별프로젝트" sheetId="1" r:id="rId1"/>
+    <sheet name="팀프로젝트" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>김영롱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Longs Food</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,191 +122,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>고기파는쇼핑몰(한가지씩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BICYCLE INFO WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자전거 정보 및 매장 정보 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화리뷰사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애완용품 쇼핑몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피아노 홍보 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차 정보 및 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁기효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature Fruits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새애완용품 판매 및 정보 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sHOW ROOm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의신청,후기,구인공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화정보공유및 후기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오유석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임재혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박기범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오병근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤준수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오승희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임상훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁기효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오성현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디룸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java/spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masters/masters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dbuser/pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lets/getit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study/room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로1번지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd Project (team project) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이엔드 가구/홈 데코 쇼핑몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고깃간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT BADA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>웹쇼핑몰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고기파는쇼핑몰(한가지씩)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BICYCLE INFO WEB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자전거 정보 및 매장 정보 공유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화리뷰사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애완용품 쇼핑몰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피아노 홍보 사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차 정보 및 판매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탁기효</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nature Fruits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼핑몰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새애완용품 판매 및 정보 공유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sHOW ROOm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의신청,후기,구인공고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화정보공유및 후기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영롱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오유석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임재혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박기범</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오병근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤준수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오승희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임상훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전일환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탁기효</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오성현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스터디룸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java/spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>masters/masters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dbuser/pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lets/getit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>study/room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종로1번지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사용 PC 주소 :  \\192.168.20.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd Project (team project) </t>
+    <t>Passion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앵무새 쇼핑몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,22 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -364,18 +343,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -470,31 +443,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,326 +805,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A18:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1176,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="330" zoomScaleNormal="330" workbookViewId="0">
+    <sheetView zoomScale="330" zoomScaleNormal="330" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
@@ -1189,106 +1055,104 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="14" t="s">
+    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1299,17 +1163,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/노트/11_2nd Project/프로젝트팀.xlsx
+++ b/노트/11_2nd Project/프로젝트팀.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Longs Food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건강식품판매 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애완용품 쇼핑몰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피아노 홍보 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,18 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sHOW ROOm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강의신청,후기,구인공고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영화정보공유및 후기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김영롱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,6 +295,22 @@
   </si>
   <si>
     <t>STL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long's Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOW ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화정보 및 후기 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주류 쇼핑몰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +808,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,10 +863,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,10 +874,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,10 +918,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,10 +940,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,10 +951,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,10 +962,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,21 +973,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1056,94 +1056,94 @@
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
       <c r="F2" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
